--- a/tracking/ErrorTrackingWorksheet.xlsx
+++ b/tracking/ErrorTrackingWorksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ExecutiveSearchYaml\tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EA1A04-9699-41E8-9387-DFB1FF8E6566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2D7D3C-8242-4DDF-99E4-3E4F5D90633B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" activeTab="1" xr2:uid="{9D0ED3D9-8DC4-4D4C-858D-9FAFB5864947}"/>
+    <workbookView xWindow="18850" yWindow="2410" windowWidth="16710" windowHeight="17860" activeTab="1" xr2:uid="{9D0ED3D9-8DC4-4D4C-858D-9FAFB5864947}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="180">
   <si>
     <t>WRHN-KITCHENER ST MARY'S</t>
   </si>
@@ -573,37 +573,10 @@
     <t>rowid</t>
   </si>
   <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>Double</t>
-  </si>
-  <si>
-    <t>Dr. Simon O’Brien</t>
-  </si>
-  <si>
-    <t>Joanne simons</t>
-  </si>
-  <si>
-    <t>Sanaz Riahi</t>
-  </si>
-  <si>
-    <t>Dr. Anne-Claude Gingras</t>
-  </si>
-  <si>
-    <t>missing 2</t>
-  </si>
-  <si>
-    <t>Fails</t>
-  </si>
-  <si>
-    <t>fails</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>Fixed</t>
+    <t>Robotxt</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -2181,8 +2154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90A319D-8BC4-42E9-A83E-FF2B7638B895}">
   <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3138,7 +3111,7 @@
         <v>3</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>179</v>
+        <v>2</v>
       </c>
       <c r="I33" s="7">
         <v>-12</v>
@@ -3167,7 +3140,7 @@
         <v>3</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>179</v>
+        <v>2</v>
       </c>
       <c r="I34" s="7">
         <v>-12</v>
@@ -3196,7 +3169,7 @@
         <v>3</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>179</v>
+        <v>2</v>
       </c>
       <c r="I35" s="7">
         <v>-12</v>
@@ -3602,7 +3575,7 @@
         <v>12</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>180</v>
+        <v>2</v>
       </c>
       <c r="I49" s="7">
         <v>1</v>
@@ -3660,7 +3633,7 @@
         <v>6</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>181</v>
+        <v>2</v>
       </c>
       <c r="I51" s="7">
         <v>1</v>
@@ -3689,7 +3662,7 @@
         <v>6</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>182</v>
+        <v>2</v>
       </c>
       <c r="I52" s="7">
         <v>1</v>
@@ -3718,7 +3691,7 @@
         <v>16</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>183</v>
+        <v>2</v>
       </c>
       <c r="I53" s="7">
         <v>1</v>
@@ -3747,7 +3720,7 @@
         <v>11</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>184</v>
+        <v>2</v>
       </c>
       <c r="I54" s="7">
         <v>2</v>
@@ -3776,7 +3749,7 @@
         <v>5</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>187</v>
+        <v>2</v>
       </c>
       <c r="I55" s="7">
         <v>4</v>
@@ -3863,7 +3836,7 @@
         <v>14</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>188</v>
+        <v>2</v>
       </c>
       <c r="I58" s="7">
         <v>13</v>
@@ -3892,7 +3865,7 @@
         <v>15</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>185</v>
+        <v>2</v>
       </c>
       <c r="I59" s="7">
         <v>14</v>
@@ -3921,7 +3894,7 @@
         <v>17</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="I60" s="7">
         <v>16</v>
